--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
+++ b/Logging_SKANE_LAN/Logging_KRISTIANSTAD/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45124</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
